--- a/data_output/PYLL/PYLL_EU/EU_ASYR_All_age_groups_['Female', 'Male', 'Total'].xlsx
+++ b/data_output/PYLL/PYLL_EU/EU_ASYR_All_age_groups_['Female', 'Male', 'Total'].xlsx
@@ -522,10 +522,10 @@
         <v>38</v>
       </c>
       <c r="C2">
-        <v>1342.499</v>
+        <v>1264.704</v>
       </c>
       <c r="D2">
-        <v>310.77</v>
+        <v>328.806</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -536,10 +536,10 @@
         <v>39</v>
       </c>
       <c r="C3">
-        <v>3462.380000000001</v>
+        <v>3355.414</v>
       </c>
       <c r="D3">
-        <v>400.2910000000001</v>
+        <v>442.6559999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -550,10 +550,10 @@
         <v>40</v>
       </c>
       <c r="C4">
-        <v>2375.972</v>
+        <v>2284.951</v>
       </c>
       <c r="D4">
-        <v>302.256</v>
+        <v>332.913</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -592,7 +592,7 @@
         <v>40</v>
       </c>
       <c r="C7">
-        <v>6778.589999999998</v>
+        <v>6778.589999999999</v>
       </c>
       <c r="D7">
         <v>511.199</v>
@@ -648,7 +648,7 @@
         <v>38</v>
       </c>
       <c r="C11">
-        <v>1207.103</v>
+        <v>1207.721</v>
       </c>
       <c r="D11">
         <v>278.669</v>
@@ -662,7 +662,7 @@
         <v>39</v>
       </c>
       <c r="C12">
-        <v>1853.86</v>
+        <v>1854.017</v>
       </c>
       <c r="D12">
         <v>395.271</v>
@@ -676,7 +676,7 @@
         <v>40</v>
       </c>
       <c r="C13">
-        <v>1491.288</v>
+        <v>1491.668</v>
       </c>
       <c r="D13">
         <v>314.081</v>
@@ -690,7 +690,7 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>2193.297</v>
+        <v>2194.491</v>
       </c>
       <c r="D14">
         <v>368.918</v>
@@ -718,7 +718,7 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>3011.614999999999</v>
+        <v>3012.214999999999</v>
       </c>
       <c r="D16">
         <v>428.5389999999999</v>
@@ -816,7 +816,7 @@
         <v>38</v>
       </c>
       <c r="C23">
-        <v>1539.28</v>
+        <v>1539.889</v>
       </c>
       <c r="D23">
         <v>362.849</v>
@@ -830,7 +830,7 @@
         <v>39</v>
       </c>
       <c r="C24">
-        <v>2700.226</v>
+        <v>2701.49</v>
       </c>
       <c r="D24">
         <v>490.053</v>
@@ -844,7 +844,7 @@
         <v>40</v>
       </c>
       <c r="C25">
-        <v>2063.279</v>
+        <v>2064.289</v>
       </c>
       <c r="D25">
         <v>404.218</v>
@@ -900,7 +900,7 @@
         <v>38</v>
       </c>
       <c r="C29">
-        <v>960.223</v>
+        <v>968.359</v>
       </c>
       <c r="D29">
         <v>470.7140000000001</v>
@@ -914,7 +914,7 @@
         <v>39</v>
       </c>
       <c r="C30">
-        <v>1294.401</v>
+        <v>1315.37</v>
       </c>
       <c r="D30">
         <v>609.0219999999999</v>
@@ -928,7 +928,7 @@
         <v>40</v>
       </c>
       <c r="C31">
-        <v>1018.323</v>
+        <v>1033.525</v>
       </c>
       <c r="D31">
         <v>480.389</v>
@@ -984,7 +984,7 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>702.433</v>
+        <v>702.9200000000001</v>
       </c>
       <c r="D35">
         <v>160.323</v>
@@ -998,7 +998,7 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>1224.606</v>
+        <v>1225.508</v>
       </c>
       <c r="D36">
         <v>264.593</v>
@@ -1012,7 +1012,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>931.3679999999999</v>
+        <v>932.037</v>
       </c>
       <c r="D37">
         <v>207.498</v>
@@ -1166,7 +1166,7 @@
         <v>38</v>
       </c>
       <c r="C48">
-        <v>660.3729999999999</v>
+        <v>660.373</v>
       </c>
       <c r="D48">
         <v>472.174</v>
@@ -1208,7 +1208,7 @@
         <v>38</v>
       </c>
       <c r="C51">
-        <v>602.939</v>
+        <v>604.2430000000001</v>
       </c>
       <c r="D51">
         <v>154.816</v>
@@ -1222,7 +1222,7 @@
         <v>39</v>
       </c>
       <c r="C52">
-        <v>1416.578</v>
+        <v>1420.097</v>
       </c>
       <c r="D52">
         <v>200.744</v>
@@ -1236,7 +1236,7 @@
         <v>40</v>
       </c>
       <c r="C53">
-        <v>1458.59</v>
+        <v>1461.59</v>
       </c>
       <c r="D53">
         <v>213.107</v>
@@ -1250,10 +1250,10 @@
         <v>38</v>
       </c>
       <c r="C54">
-        <v>399.822</v>
+        <v>424.0599999999999</v>
       </c>
       <c r="D54">
-        <v>168.149</v>
+        <v>201.897</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1264,10 +1264,10 @@
         <v>39</v>
       </c>
       <c r="C55">
-        <v>880.203</v>
+        <v>1003.916</v>
       </c>
       <c r="D55">
-        <v>388.375</v>
+        <v>458.6189999999999</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1278,7 +1278,7 @@
         <v>40</v>
       </c>
       <c r="C56">
-        <v>520.72</v>
+        <v>598.02</v>
       </c>
       <c r="D56">
         <v>317.422</v>
@@ -1376,7 +1376,7 @@
         <v>38</v>
       </c>
       <c r="C63">
-        <v>1161.059</v>
+        <v>1179.992</v>
       </c>
       <c r="D63">
         <v>622.999</v>
@@ -1390,7 +1390,7 @@
         <v>39</v>
       </c>
       <c r="C64">
-        <v>1847.517</v>
+        <v>1843.662</v>
       </c>
       <c r="D64">
         <v>759.49</v>
@@ -1404,7 +1404,7 @@
         <v>40</v>
       </c>
       <c r="C65">
-        <v>1510.201</v>
+        <v>1517.764</v>
       </c>
       <c r="D65">
         <v>589.408</v>
@@ -1418,7 +1418,7 @@
         <v>38</v>
       </c>
       <c r="C66">
-        <v>1501.31</v>
+        <v>1399.235</v>
       </c>
       <c r="D66">
         <v>499.795</v>
@@ -1432,7 +1432,7 @@
         <v>39</v>
       </c>
       <c r="C67">
-        <v>2688.310000000001</v>
+        <v>2473.991</v>
       </c>
       <c r="D67">
         <v>992.6239999999999</v>
@@ -1446,7 +1446,7 @@
         <v>40</v>
       </c>
       <c r="C68">
-        <v>2010.668</v>
+        <v>1864.623</v>
       </c>
       <c r="D68">
         <v>538.5700000000001</v>
@@ -1460,10 +1460,10 @@
         <v>38</v>
       </c>
       <c r="C69">
-        <v>881.9229999999999</v>
+        <v>885.019</v>
       </c>
       <c r="D69">
-        <v>216.965</v>
+        <v>215.836</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1474,10 +1474,10 @@
         <v>39</v>
       </c>
       <c r="C70">
-        <v>1697.421</v>
+        <v>1717.05</v>
       </c>
       <c r="D70">
-        <v>309.0740000000001</v>
+        <v>309.674</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1488,10 +1488,10 @@
         <v>40</v>
       </c>
       <c r="C71">
-        <v>1217.188</v>
+        <v>1229.62</v>
       </c>
       <c r="D71">
-        <v>249.014</v>
+        <v>248.954</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1502,10 +1502,10 @@
         <v>38</v>
       </c>
       <c r="C72">
-        <v>179.314</v>
+        <v>181.624</v>
       </c>
       <c r="D72">
-        <v>140.573</v>
+        <v>152.386</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1516,10 +1516,10 @@
         <v>39</v>
       </c>
       <c r="C73">
-        <v>331.008</v>
+        <v>327.471</v>
       </c>
       <c r="D73">
-        <v>169.414</v>
+        <v>169.427</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1530,10 +1530,10 @@
         <v>40</v>
       </c>
       <c r="C74">
-        <v>224.826</v>
+        <v>223.623</v>
       </c>
       <c r="D74">
-        <v>149.894</v>
+        <v>149.788</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1628,7 +1628,7 @@
         <v>38</v>
       </c>
       <c r="C81">
-        <v>1724.106</v>
+        <v>1729.038</v>
       </c>
       <c r="D81">
         <v>357.212</v>
@@ -1642,7 +1642,7 @@
         <v>39</v>
       </c>
       <c r="C82">
-        <v>3468.478</v>
+        <v>3476.469999999999</v>
       </c>
       <c r="D82">
         <v>556.66</v>
@@ -1656,7 +1656,7 @@
         <v>40</v>
       </c>
       <c r="C83">
-        <v>2569.25</v>
+        <v>2575.789000000001</v>
       </c>
       <c r="D83">
         <v>441.533</v>
@@ -1712,7 +1712,7 @@
         <v>38</v>
       </c>
       <c r="C87">
-        <v>1359.866</v>
+        <v>1360.578</v>
       </c>
       <c r="D87">
         <v>368.175</v>
@@ -1726,7 +1726,7 @@
         <v>39</v>
       </c>
       <c r="C88">
-        <v>2244.615</v>
+        <v>2245.711</v>
       </c>
       <c r="D88">
         <v>346.624</v>
@@ -1740,7 +1740,7 @@
         <v>40</v>
       </c>
       <c r="C89">
-        <v>1730.652</v>
+        <v>1731.692</v>
       </c>
       <c r="D89">
         <v>257.299</v>
@@ -1754,7 +1754,7 @@
         <v>38</v>
       </c>
       <c r="C90">
-        <v>1465.025</v>
+        <v>1477.29</v>
       </c>
       <c r="D90">
         <v>356.715</v>
@@ -1768,7 +1768,7 @@
         <v>39</v>
       </c>
       <c r="C91">
-        <v>2488.795</v>
+        <v>2512.252</v>
       </c>
       <c r="D91">
         <v>571.3729999999999</v>
@@ -1782,7 +1782,7 @@
         <v>40</v>
       </c>
       <c r="C92">
-        <v>1872.231</v>
+        <v>1886.03</v>
       </c>
       <c r="D92">
         <v>353.928</v>
@@ -1796,10 +1796,10 @@
         <v>38</v>
       </c>
       <c r="C93">
-        <v>1435.516</v>
+        <v>1341.344</v>
       </c>
       <c r="D93">
-        <v>203.38</v>
+        <v>205.355</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1810,7 +1810,7 @@
         <v>39</v>
       </c>
       <c r="C94">
-        <v>2168.989</v>
+        <v>2072.827</v>
       </c>
       <c r="D94">
         <v>291.163</v>
@@ -1824,10 +1824,10 @@
         <v>40</v>
       </c>
       <c r="C95">
-        <v>1784.123</v>
+        <v>1693.84</v>
       </c>
       <c r="D95">
-        <v>234.324</v>
+        <v>237.504</v>
       </c>
     </row>
     <row r="96" spans="1:4">

--- a/data_output/PYLL/PYLL_EU/EU_ASYR_All_age_groups_['Female', 'Male', 'Total'].xlsx
+++ b/data_output/PYLL/PYLL_EU/EU_ASYR_All_age_groups_['Female', 'Male', 'Total'].xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="37">
   <si>
     <t>Location</t>
   </si>
@@ -28,12 +28,6 @@
     <t>ASYR_FLUC</t>
   </si>
   <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
@@ -62,12 +56,6 @@
   </si>
   <si>
     <t>France</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
   </si>
   <si>
     <t>Greece</t>
@@ -494,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +507,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2">
-        <v>1264.704</v>
+        <v>782.077</v>
       </c>
       <c r="D2">
-        <v>328.806</v>
+        <v>627.486</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -533,13 +521,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C3">
-        <v>3355.414</v>
+        <v>1427.616</v>
       </c>
       <c r="D3">
-        <v>442.6559999999999</v>
+        <v>711.896</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -547,13 +535,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C4">
-        <v>2284.951</v>
+        <v>1045.487</v>
       </c>
       <c r="D4">
-        <v>332.913</v>
+        <v>494.669</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -561,13 +549,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C5">
-        <v>2639.54</v>
+        <v>1271.059</v>
       </c>
       <c r="D5">
-        <v>413.134</v>
+        <v>511.567</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -575,13 +563,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C6">
-        <v>10728.205</v>
+        <v>2046.05</v>
       </c>
       <c r="D6">
-        <v>730.25</v>
+        <v>711.596</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -589,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C7">
-        <v>6778.589999999999</v>
+        <v>1654.644</v>
       </c>
       <c r="D7">
-        <v>511.199</v>
+        <v>485.445</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -603,13 +591,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>785.9559999999999</v>
+        <v>2512.596</v>
       </c>
       <c r="D8">
-        <v>239.485</v>
+        <v>849.971</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -617,13 +605,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>1595.546</v>
+        <v>4259.273</v>
       </c>
       <c r="D9">
-        <v>425.934</v>
+        <v>1078.269</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -631,13 +619,13 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C10">
-        <v>1094.602</v>
+        <v>3358.728</v>
       </c>
       <c r="D10">
-        <v>289.323</v>
+        <v>722.55</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -645,13 +633,13 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>1207.721</v>
+        <v>1510.622</v>
       </c>
       <c r="D11">
-        <v>278.669</v>
+        <v>1036.147</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -659,13 +647,13 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12">
-        <v>1854.017</v>
+        <v>2252.887</v>
       </c>
       <c r="D12">
-        <v>395.271</v>
+        <v>1108.119</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -673,13 +661,13 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C13">
-        <v>1491.668</v>
+        <v>1823.364</v>
       </c>
       <c r="D13">
-        <v>314.081</v>
+        <v>852.6999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -687,13 +675,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C14">
-        <v>2194.491</v>
+        <v>497.069</v>
       </c>
       <c r="D14">
-        <v>368.918</v>
+        <v>1044.135</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -701,13 +689,13 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C15">
-        <v>3889.213</v>
+        <v>536.478</v>
       </c>
       <c r="D15">
-        <v>533.3680000000001</v>
+        <v>1202.877</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -715,13 +703,13 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C16">
-        <v>3012.214999999999</v>
+        <v>424.46</v>
       </c>
       <c r="D16">
-        <v>428.5389999999999</v>
+        <v>786.813</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -729,13 +717,13 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>1092.762</v>
+        <v>1448.515</v>
       </c>
       <c r="D17">
-        <v>382.297</v>
+        <v>673.101</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -743,13 +731,13 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C18">
-        <v>1907.68</v>
+        <v>2416.856</v>
       </c>
       <c r="D18">
-        <v>466.22</v>
+        <v>802.2139999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -757,13 +745,13 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C19">
-        <v>1435.587</v>
+        <v>1894.092</v>
       </c>
       <c r="D19">
-        <v>369.201</v>
+        <v>523.654</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -771,13 +759,13 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C20">
-        <v>539.878</v>
+        <v>265.671</v>
       </c>
       <c r="D20">
-        <v>303.082</v>
+        <v>591.9930000000001</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -785,13 +773,13 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C21">
-        <v>1142.616</v>
+        <v>292.798</v>
       </c>
       <c r="D21">
-        <v>587.282</v>
+        <v>657.7670000000001</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -799,13 +787,13 @@
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C22">
-        <v>796.803</v>
+        <v>233.96</v>
       </c>
       <c r="D22">
-        <v>335.12</v>
+        <v>476.8</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -813,13 +801,13 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C23">
-        <v>1539.889</v>
+        <v>832.2910000000001</v>
       </c>
       <c r="D23">
-        <v>362.849</v>
+        <v>1402.179</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -827,13 +815,13 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C24">
-        <v>2701.49</v>
+        <v>1169.685</v>
       </c>
       <c r="D24">
-        <v>490.053</v>
+        <v>2074.398</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -841,13 +829,13 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C25">
-        <v>2064.289</v>
+        <v>905.4350000000001</v>
       </c>
       <c r="D25">
-        <v>404.218</v>
+        <v>1403.89</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -855,13 +843,13 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C26">
-        <v>269.917</v>
+        <v>262.312</v>
       </c>
       <c r="D26">
-        <v>101.008</v>
+        <v>566.7809999999999</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -869,13 +857,13 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C27">
-        <v>509.208</v>
+        <v>583.202</v>
       </c>
       <c r="D27">
-        <v>185.865</v>
+        <v>755.29</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -883,13 +871,13 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C28">
-        <v>365.606</v>
+        <v>375.376</v>
       </c>
       <c r="D28">
-        <v>154.094</v>
+        <v>545.559</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -897,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C29">
-        <v>968.359</v>
+        <v>575.604</v>
       </c>
       <c r="D29">
-        <v>470.7140000000001</v>
+        <v>235.167</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -911,13 +899,13 @@
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C30">
-        <v>1315.37</v>
+        <v>1224.681</v>
       </c>
       <c r="D30">
-        <v>609.0219999999999</v>
+        <v>319.897</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -925,13 +913,13 @@
         <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C31">
-        <v>1033.525</v>
+        <v>877.915</v>
       </c>
       <c r="D31">
-        <v>480.389</v>
+        <v>238.46</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -939,13 +927,13 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C32">
-        <v>436.816</v>
+        <v>559.115</v>
       </c>
       <c r="D32">
-        <v>194.475</v>
+        <v>518.824</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -953,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C33">
-        <v>785.38</v>
+        <v>767.3040000000001</v>
       </c>
       <c r="D33">
-        <v>287.37</v>
+        <v>621.655</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -967,13 +955,13 @@
         <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C34">
-        <v>579.057</v>
+        <v>639.362</v>
       </c>
       <c r="D34">
-        <v>213.318</v>
+        <v>426.46</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -981,13 +969,13 @@
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C35">
-        <v>702.9200000000001</v>
+        <v>1560.552</v>
       </c>
       <c r="D35">
-        <v>160.323</v>
+        <v>754.595</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -995,13 +983,13 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C36">
-        <v>1225.508</v>
+        <v>2174.313</v>
       </c>
       <c r="D36">
-        <v>264.593</v>
+        <v>998.631</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1009,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C37">
-        <v>932.037</v>
+        <v>1838.414</v>
       </c>
       <c r="D37">
-        <v>207.498</v>
+        <v>716.763</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1023,13 +1011,13 @@
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C38">
-        <v>85.56899999999999</v>
+        <v>753.9590000000001</v>
       </c>
       <c r="D38">
-        <v>130.672</v>
+        <v>1440.122</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1037,13 +1025,13 @@
         <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C39">
-        <v>235.429</v>
+        <v>998.849</v>
       </c>
       <c r="D39">
-        <v>195.326</v>
+        <v>2447.854</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1051,13 +1039,13 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C40">
-        <v>127.715</v>
+        <v>663.099</v>
       </c>
       <c r="D40">
-        <v>148.093</v>
+        <v>1439.492</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1065,41 +1053,41 @@
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C41">
-        <v>1017.533</v>
+        <v>862.5129999999999</v>
       </c>
       <c r="D41">
-        <v>2874.492999999999</v>
+        <v>204.719</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C42">
-        <v>630.037</v>
+        <v>1820.544</v>
       </c>
       <c r="D42">
-        <v>252.506</v>
+        <v>272.36</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C43">
-        <v>752.915</v>
+        <v>1724.792</v>
       </c>
       <c r="D43">
-        <v>224.211</v>
+        <v>251.011</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1107,41 +1095,41 @@
         <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C44">
-        <v>679.518</v>
+        <v>752.114</v>
       </c>
       <c r="D44">
-        <v>232.5</v>
+        <v>1107.863</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C45">
-        <v>1375.806</v>
+        <v>1270.633</v>
       </c>
       <c r="D45">
-        <v>262.764</v>
+        <v>1854.555</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C46">
-        <v>2000.027</v>
+        <v>958.046</v>
       </c>
       <c r="D46">
-        <v>383.411</v>
+        <v>1160.413</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1149,41 +1137,41 @@
         <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C47">
-        <v>1661.375</v>
+        <v>2186.028</v>
       </c>
       <c r="D47">
-        <v>288.526</v>
+        <v>1291.288</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C48">
-        <v>660.373</v>
+        <v>4902.069</v>
       </c>
       <c r="D48">
-        <v>472.174</v>
+        <v>2054.922</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C49">
-        <v>1256.591</v>
+        <v>3520.463</v>
       </c>
       <c r="D49">
-        <v>665.0379999999999</v>
+        <v>1297.818</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1191,41 +1179,41 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C50">
-        <v>811.2090000000001</v>
+        <v>888.9929999999999</v>
       </c>
       <c r="D50">
-        <v>537.1109999999999</v>
+        <v>1657.023</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C51">
-        <v>604.2430000000001</v>
+        <v>1476.914</v>
       </c>
       <c r="D51">
-        <v>154.816</v>
+        <v>2107.458</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C52">
-        <v>1420.097</v>
+        <v>1069.675</v>
       </c>
       <c r="D52">
-        <v>200.744</v>
+        <v>1506.16</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1233,41 +1221,41 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C53">
-        <v>1461.59</v>
+        <v>1243.932</v>
       </c>
       <c r="D53">
-        <v>213.107</v>
+        <v>1963.888</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C54">
-        <v>424.0599999999999</v>
+        <v>1259.104</v>
       </c>
       <c r="D54">
-        <v>201.897</v>
+        <v>2194.587</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C55">
-        <v>1003.916</v>
+        <v>1250.037</v>
       </c>
       <c r="D55">
-        <v>458.6189999999999</v>
+        <v>1650.365</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1275,41 +1263,41 @@
         <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C56">
-        <v>598.02</v>
+        <v>2078.272</v>
       </c>
       <c r="D56">
-        <v>317.422</v>
+        <v>2587.389</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C57">
-        <v>1284.529</v>
+        <v>2898.404</v>
       </c>
       <c r="D57">
-        <v>505.018</v>
+        <v>2165.246</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C58">
-        <v>2560.954999999999</v>
+        <v>2343.465</v>
       </c>
       <c r="D58">
-        <v>1069.132</v>
+        <v>1729.378</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1317,41 +1305,41 @@
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C59">
-        <v>1848.762</v>
+        <v>755.873</v>
       </c>
       <c r="D59">
-        <v>769.0870000000001</v>
+        <v>407.75</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C60">
-        <v>1175.834</v>
+        <v>1461.541</v>
       </c>
       <c r="D60">
-        <v>534.6799999999999</v>
+        <v>508.221</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C61">
-        <v>1853.838</v>
+        <v>1083.525</v>
       </c>
       <c r="D61">
-        <v>922.6580000000001</v>
+        <v>376.944</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1359,41 +1347,41 @@
         <v>24</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C62">
-        <v>1406.974</v>
+        <v>100.88</v>
       </c>
       <c r="D62">
-        <v>659.154</v>
+        <v>389.615</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C63">
-        <v>1179.992</v>
+        <v>203.948</v>
       </c>
       <c r="D63">
-        <v>622.999</v>
+        <v>585.496</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C64">
-        <v>1843.662</v>
+        <v>119.715</v>
       </c>
       <c r="D64">
-        <v>759.49</v>
+        <v>368.234</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1401,41 +1389,41 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C65">
-        <v>1517.764</v>
+        <v>1760.229</v>
       </c>
       <c r="D65">
-        <v>589.408</v>
+        <v>411.964</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C66">
-        <v>1399.235</v>
+        <v>3621.431</v>
       </c>
       <c r="D66">
-        <v>499.795</v>
+        <v>559.655</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C67">
-        <v>2473.991</v>
+        <v>2623.905</v>
       </c>
       <c r="D67">
-        <v>992.6239999999999</v>
+        <v>398.499</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1443,41 +1431,41 @@
         <v>26</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C68">
-        <v>1864.623</v>
+        <v>968.614</v>
       </c>
       <c r="D68">
-        <v>538.5700000000001</v>
+        <v>547.5170000000001</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C69">
-        <v>885.019</v>
+        <v>1385.101</v>
       </c>
       <c r="D69">
-        <v>215.836</v>
+        <v>825.0360000000001</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C70">
-        <v>1717.05</v>
+        <v>1168.365</v>
       </c>
       <c r="D70">
-        <v>309.674</v>
+        <v>562.5</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1485,41 +1473,41 @@
         <v>27</v>
       </c>
       <c r="B71" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C71">
-        <v>1229.62</v>
+        <v>2076.737</v>
       </c>
       <c r="D71">
-        <v>248.954</v>
+        <v>619.821</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C72">
-        <v>181.624</v>
+        <v>3521.172</v>
       </c>
       <c r="D72">
-        <v>152.386</v>
+        <v>826.8920000000001</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C73">
-        <v>327.471</v>
+        <v>2743.45</v>
       </c>
       <c r="D73">
-        <v>169.427</v>
+        <v>583.595</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1527,41 +1515,41 @@
         <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C74">
-        <v>223.623</v>
+        <v>1403.477</v>
       </c>
       <c r="D74">
-        <v>149.788</v>
+        <v>821.87</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C75">
-        <v>1990.676</v>
+        <v>3162.798</v>
       </c>
       <c r="D75">
-        <v>411.557</v>
+        <v>1136.617</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C76">
-        <v>3883.285</v>
+        <v>2223.683</v>
       </c>
       <c r="D76">
-        <v>617.77</v>
+        <v>820.3869999999999</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1569,41 +1557,41 @@
         <v>29</v>
       </c>
       <c r="B77" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C77">
-        <v>2849.43</v>
+        <v>1500.02</v>
       </c>
       <c r="D77">
-        <v>502.716</v>
+        <v>906.361</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C78">
-        <v>994.5219999999999</v>
+        <v>2190.637</v>
       </c>
       <c r="D78">
-        <v>260.398</v>
+        <v>1268.806</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C79">
-        <v>1519.848</v>
+        <v>1801.442</v>
       </c>
       <c r="D79">
-        <v>394.817</v>
+        <v>837.097</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1611,41 +1599,41 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C80">
-        <v>1241.237</v>
+        <v>1508.707</v>
       </c>
       <c r="D80">
-        <v>266.811</v>
+        <v>923.109</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C81">
-        <v>1729.038</v>
+        <v>2339.633</v>
       </c>
       <c r="D81">
-        <v>357.212</v>
+        <v>1508.718</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C82">
-        <v>3476.469999999999</v>
+        <v>1881.84</v>
       </c>
       <c r="D82">
-        <v>556.66</v>
+        <v>884.322</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1653,41 +1641,41 @@
         <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C83">
-        <v>2575.789000000001</v>
+        <v>1358.48</v>
       </c>
       <c r="D83">
-        <v>441.533</v>
+        <v>294.285</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C84">
-        <v>980.087</v>
+        <v>2117.093</v>
       </c>
       <c r="D84">
-        <v>341.1010000000001</v>
+        <v>380.288</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C85">
-        <v>2536.819</v>
+        <v>1740.918</v>
       </c>
       <c r="D85">
-        <v>760.413</v>
+        <v>268.696</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1695,41 +1683,41 @@
         <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C86">
-        <v>1663.803</v>
+        <v>614.323</v>
       </c>
       <c r="D86">
-        <v>499.843</v>
+        <v>432.155</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C87">
-        <v>1360.578</v>
+        <v>1366.198</v>
       </c>
       <c r="D87">
-        <v>368.175</v>
+        <v>623.528</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C88">
-        <v>2245.711</v>
+        <v>961.938</v>
       </c>
       <c r="D88">
-        <v>346.624</v>
+        <v>429.657</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1737,181 +1725,41 @@
         <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C89">
-        <v>1731.692</v>
+        <v>346.596</v>
       </c>
       <c r="D89">
-        <v>257.299</v>
+        <v>484.111</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B90" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C90">
-        <v>1477.29</v>
+        <v>980.27</v>
       </c>
       <c r="D90">
-        <v>356.715</v>
+        <v>692.824</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C91">
-        <v>2512.252</v>
+        <v>642.336</v>
       </c>
       <c r="D91">
-        <v>571.3729999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
-        <v>34</v>
-      </c>
-      <c r="B92" t="s">
-        <v>40</v>
-      </c>
-      <c r="C92">
-        <v>1886.03</v>
-      </c>
-      <c r="D92">
-        <v>353.928</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
-        <v>35</v>
-      </c>
-      <c r="B93" t="s">
-        <v>38</v>
-      </c>
-      <c r="C93">
-        <v>1341.344</v>
-      </c>
-      <c r="D93">
-        <v>205.355</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
-        <v>35</v>
-      </c>
-      <c r="B94" t="s">
-        <v>39</v>
-      </c>
-      <c r="C94">
-        <v>2072.827</v>
-      </c>
-      <c r="D94">
-        <v>291.163</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
-        <v>35</v>
-      </c>
-      <c r="B95" t="s">
-        <v>40</v>
-      </c>
-      <c r="C95">
-        <v>1693.84</v>
-      </c>
-      <c r="D95">
-        <v>237.504</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
-        <v>36</v>
-      </c>
-      <c r="B96" t="s">
-        <v>38</v>
-      </c>
-      <c r="C96">
-        <v>537.226</v>
-      </c>
-      <c r="D96">
-        <v>115.979</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
-        <v>36</v>
-      </c>
-      <c r="B97" t="s">
-        <v>39</v>
-      </c>
-      <c r="C97">
-        <v>1002.641</v>
-      </c>
-      <c r="D97">
-        <v>206.156</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>36</v>
-      </c>
-      <c r="B98" t="s">
-        <v>40</v>
-      </c>
-      <c r="C98">
-        <v>707.492</v>
-      </c>
-      <c r="D98">
-        <v>129.206</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
-        <v>37</v>
-      </c>
-      <c r="B99" t="s">
-        <v>38</v>
-      </c>
-      <c r="C99">
-        <v>390.551</v>
-      </c>
-      <c r="D99">
-        <v>99.47200000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>37</v>
-      </c>
-      <c r="B100" t="s">
-        <v>39</v>
-      </c>
-      <c r="C100">
-        <v>849.3430000000001</v>
-      </c>
-      <c r="D100">
-        <v>252.295</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
-        <v>37</v>
-      </c>
-      <c r="B101" t="s">
-        <v>40</v>
-      </c>
-      <c r="C101">
-        <v>576.34</v>
-      </c>
-      <c r="D101">
-        <v>169.042</v>
+        <v>466.577</v>
       </c>
     </row>
   </sheetData>
